--- a/Tool/ExcelTool/ExcelConfig/Npc.xlsx
+++ b/Tool/ExcelTool/ExcelConfig/Npc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameProject\Client\All-Doe-s-Life-Res\All-Doe-s-Life-Tool\ExcelTool\ExcelConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameProject\RPGFramework\Tool\ExcelTool\ExcelConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FD5415-7372-4778-9E0B-3B70B3A470BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E05A9EA-19D9-4DA0-9634-1EA65361CE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="5100" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="5115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>data</t>
   </si>
@@ -58,94 +58,42 @@
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿报纸的人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天框</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>NpcCfg</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Path</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>路径</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>靠墙的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿报纸的人2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否跟随镜头旋转</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Islens</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Npc/NPC-B</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Npc/SideNPC</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Npc/NPC-B (1)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doe</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Npc/Doe</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Npc/Player</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>我也不知道{[en:I don't know][jp:分かんない]}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>Player</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -207,12 +155,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
@@ -226,29 +168,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -309,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,49 +259,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -406,14 +290,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A4:E129" totalsRowShown="0">
-  <autoFilter ref="A4:E129" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mark" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{10DCD3F2-82C2-4ADD-9809-369A45F3D2BD}" name="Dialog" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D43FB734-5345-4FB7-BED3-8A32FF67698F}" name="Path" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{548B2047-2AB6-4BE8-92BD-47B533C8405C}" name="Islens" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A4:C129" totalsRowShown="0">
+  <autoFilter ref="A4:C129" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mark" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D43FB734-5345-4FB7-BED3-8A32FF67698F}" name="Path" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -682,7 +564,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,11 +597,11 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>11</v>
+      <c r="D1" s="10" t="s">
+        <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>12</v>
+      <c r="E1" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -733,14 +615,8 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>19</v>
+      <c r="C2" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -758,13 +634,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -782,13 +652,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -796,62 +660,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>26</v>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="E5" s="13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="12" t="b">
-        <v>1</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="12" t="b">
-        <v>0</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="14" t="b">
-        <v>1</v>
-      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -861,17 +688,8 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -881,8 +699,7 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="10"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -892,8 +709,7 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="10"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -903,8 +719,7 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -914,8 +729,7 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="10"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -925,8 +739,7 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="10"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -936,8 +749,7 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="10"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -947,8 +759,7 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="10"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -958,7 +769,7 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -968,7 +779,7 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
+      <c r="B18" s="10"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -978,7 +789,7 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="11"/>
+      <c r="B19" s="10"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -988,7 +799,7 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
+      <c r="B20" s="10"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -998,7 +809,7 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1008,7 +819,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
+      <c r="B22" s="10"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1018,7 +829,7 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="11"/>
+      <c r="B23" s="10"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1028,7 +839,7 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="11"/>
+      <c r="B24" s="10"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1038,7 +849,7 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="11"/>
+      <c r="B25" s="10"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1048,7 +859,7 @@
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
+      <c r="B26" s="10"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1058,7 +869,7 @@
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1068,7 +879,7 @@
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
+      <c r="B28" s="10"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1078,7 +889,7 @@
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
+      <c r="B29" s="10"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1088,7 +899,7 @@
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
+      <c r="B30" s="10"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1098,7 +909,7 @@
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="11"/>
+      <c r="B31" s="10"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1108,7 +919,7 @@
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="11"/>
+      <c r="B32" s="10"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1118,7 +929,7 @@
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="11"/>
+      <c r="B33" s="10"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1128,7 +939,7 @@
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="11"/>
+      <c r="B34" s="10"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1138,7 +949,7 @@
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="11"/>
+      <c r="B35" s="10"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1148,7 +959,7 @@
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="11"/>
+      <c r="B36" s="10"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1158,7 +969,7 @@
       <c r="N36" s="2"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="11"/>
+      <c r="B37" s="10"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1168,7 +979,7 @@
       <c r="N37" s="2"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="11"/>
+      <c r="B38" s="10"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -1178,7 +989,7 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="11"/>
+      <c r="B39" s="10"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -1188,7 +999,7 @@
       <c r="N39" s="2"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="11"/>
+      <c r="B40" s="10"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -1198,7 +1009,7 @@
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="11"/>
+      <c r="B41" s="10"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -1208,7 +1019,7 @@
       <c r="N41" s="2"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B42" s="11"/>
+      <c r="B42" s="10"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -1218,7 +1029,7 @@
       <c r="N42" s="2"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="11"/>
+      <c r="B43" s="10"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -1228,7 +1039,7 @@
       <c r="N43" s="2"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="11"/>
+      <c r="B44" s="10"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -1238,7 +1049,7 @@
       <c r="N44" s="2"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="11"/>
+      <c r="B45" s="10"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -1248,7 +1059,7 @@
       <c r="N45" s="2"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B46" s="11"/>
+      <c r="B46" s="10"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -1258,7 +1069,7 @@
       <c r="N46" s="2"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B47" s="11"/>
+      <c r="B47" s="10"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -1268,7 +1079,7 @@
       <c r="N47" s="2"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B48" s="11"/>
+      <c r="B48" s="10"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -1278,16 +1089,19 @@
       <c r="N48" s="2"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B49" s="11"/>
+      <c r="B49" s="10"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B50" s="11"/>
+      <c r="B50" s="10"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -1297,7 +1111,7 @@
       <c r="N50" s="2"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B51" s="11"/>
+      <c r="B51" s="10"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -1307,16 +1121,19 @@
       <c r="N51" s="2"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B52" s="11"/>
+      <c r="B52" s="10"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B53" s="11"/>
+      <c r="B53" s="10"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -1326,7 +1143,7 @@
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="11"/>
+      <c r="B54" s="10"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -1336,7 +1153,7 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B55" s="11"/>
+      <c r="B55" s="10"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -1346,7 +1163,7 @@
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B56" s="11"/>
+      <c r="B56" s="10"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -1356,7 +1173,7 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B57" s="11"/>
+      <c r="B57" s="10"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -1366,7 +1183,7 @@
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B58" s="11"/>
+      <c r="B58" s="10"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -1376,7 +1193,7 @@
       <c r="N58" s="2"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B59" s="11"/>
+      <c r="B59" s="10"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -1386,7 +1203,7 @@
       <c r="N59" s="2"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B60" s="11"/>
+      <c r="B60" s="10"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -1396,7 +1213,7 @@
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B61" s="11"/>
+      <c r="B61" s="10"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -1406,7 +1223,7 @@
       <c r="N61" s="2"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B62" s="11"/>
+      <c r="B62" s="10"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -1416,7 +1233,7 @@
       <c r="N62" s="2"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B63" s="11"/>
+      <c r="B63" s="10"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -1426,7 +1243,7 @@
       <c r="N63" s="2"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B64" s="11"/>
+      <c r="B64" s="10"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -1436,7 +1253,7 @@
       <c r="N64" s="2"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B65" s="11"/>
+      <c r="B65" s="10"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -1446,7 +1263,7 @@
       <c r="N65" s="2"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B66" s="11"/>
+      <c r="B66" s="10"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -1456,7 +1273,7 @@
       <c r="N66" s="2"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B67" s="11"/>
+      <c r="B67" s="10"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -1466,7 +1283,7 @@
       <c r="N67" s="2"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B68" s="11"/>
+      <c r="B68" s="10"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -1476,7 +1293,7 @@
       <c r="N68" s="2"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B69" s="11"/>
+      <c r="B69" s="10"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -1486,7 +1303,7 @@
       <c r="N69" s="2"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B70" s="11"/>
+      <c r="B70" s="10"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -1496,7 +1313,7 @@
       <c r="N70" s="2"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B71" s="11"/>
+      <c r="B71" s="10"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -1506,7 +1323,7 @@
       <c r="N71" s="2"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B72" s="11"/>
+      <c r="B72" s="10"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -1516,7 +1333,7 @@
       <c r="N72" s="2"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B73" s="11"/>
+      <c r="B73" s="10"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -1526,7 +1343,7 @@
       <c r="N73" s="2"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B74" s="11"/>
+      <c r="B74" s="10"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -1536,7 +1353,7 @@
       <c r="N74" s="2"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B75" s="11"/>
+      <c r="B75" s="10"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -1546,7 +1363,7 @@
       <c r="N75" s="2"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B76" s="11"/>
+      <c r="B76" s="10"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -1556,7 +1373,7 @@
       <c r="N76" s="2"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B77" s="11"/>
+      <c r="B77" s="10"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -1566,7 +1383,7 @@
       <c r="N77" s="2"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B78" s="11"/>
+      <c r="B78" s="10"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -1576,7 +1393,7 @@
       <c r="N78" s="2"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B79" s="11"/>
+      <c r="B79" s="10"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -1586,7 +1403,7 @@
       <c r="N79" s="2"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B80" s="11"/>
+      <c r="B80" s="10"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -1596,7 +1413,7 @@
       <c r="N80" s="2"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B81" s="11"/>
+      <c r="B81" s="10"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -1606,7 +1423,7 @@
       <c r="N81" s="2"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B82" s="11"/>
+      <c r="B82" s="10"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -1616,7 +1433,7 @@
       <c r="N82" s="2"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B83" s="11"/>
+      <c r="B83" s="10"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -1626,7 +1443,7 @@
       <c r="N83" s="2"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B84" s="11"/>
+      <c r="B84" s="10"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -1636,7 +1453,7 @@
       <c r="N84" s="2"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B85" s="11"/>
+      <c r="B85" s="10"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -1646,7 +1463,7 @@
       <c r="N85" s="2"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B86" s="11"/>
+      <c r="B86" s="10"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -1656,7 +1473,7 @@
       <c r="N86" s="2"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B87" s="11"/>
+      <c r="B87" s="10"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -1666,7 +1483,7 @@
       <c r="N87" s="2"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B88" s="11"/>
+      <c r="B88" s="10"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -1676,7 +1493,7 @@
       <c r="N88" s="2"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B89" s="11"/>
+      <c r="B89" s="10"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -1686,7 +1503,7 @@
       <c r="N89" s="2"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B90" s="11"/>
+      <c r="B90" s="10"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -1696,7 +1513,7 @@
       <c r="N90" s="2"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B91" s="11"/>
+      <c r="B91" s="10"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -1706,7 +1523,7 @@
       <c r="N91" s="2"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B92" s="11"/>
+      <c r="B92" s="10"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -1716,7 +1533,7 @@
       <c r="N92" s="2"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B93" s="11"/>
+      <c r="B93" s="10"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -1735,7 +1552,7 @@
       <c r="N94" s="2"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B95" s="11"/>
+      <c r="B95" s="10"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -1754,7 +1571,7 @@
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B97" s="11"/>
+      <c r="B97" s="10"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
@@ -1898,7 +1715,7 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
@@ -1907,7 +1724,7 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
@@ -1916,7 +1733,7 @@
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -1925,7 +1742,7 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -1934,7 +1751,7 @@
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -1943,7 +1760,7 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
@@ -1952,7 +1769,7 @@
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
@@ -1961,7 +1778,7 @@
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
@@ -1970,7 +1787,7 @@
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
@@ -1979,7 +1796,7 @@
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
     </row>
-    <row r="122" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
@@ -1988,7 +1805,7 @@
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
     </row>
-    <row r="123" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
@@ -1997,7 +1814,7 @@
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
@@ -2006,7 +1823,7 @@
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
@@ -2015,7 +1832,7 @@
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
-    <row r="126" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
@@ -2024,32 +1841,41 @@
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
     </row>
-    <row r="127" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
     </row>
-    <row r="128" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
     </row>
-    <row r="129" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
